--- a/natmiOut/OldD2/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H2">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I2">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J2">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N2">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O2">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P2">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q2">
-        <v>0.8873442990114483</v>
+        <v>0.9267567281700001</v>
       </c>
       <c r="R2">
-        <v>0.8873442990114483</v>
+        <v>3.70702691268</v>
       </c>
       <c r="S2">
-        <v>0.001275588164394626</v>
+        <v>0.00124340580413081</v>
       </c>
       <c r="T2">
-        <v>0.001275588164394626</v>
+        <v>0.0006332128393498792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H3">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I3">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J3">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N3">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P3">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q3">
-        <v>3.895559083979929</v>
+        <v>4.123220509</v>
       </c>
       <c r="R3">
-        <v>3.895559083979929</v>
+        <v>24.739323054</v>
       </c>
       <c r="S3">
-        <v>0.005600001112038088</v>
+        <v>0.00553201952223793</v>
       </c>
       <c r="T3">
-        <v>0.005600001112038088</v>
+        <v>0.0042258276952438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H4">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I4">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J4">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N4">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O4">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P4">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q4">
-        <v>6.786833668739279</v>
+        <v>7.127799560120001</v>
       </c>
       <c r="R4">
-        <v>6.786833668739279</v>
+        <v>42.76679736072</v>
       </c>
       <c r="S4">
-        <v>0.009756308471473133</v>
+        <v>0.009563186405168992</v>
       </c>
       <c r="T4">
-        <v>0.009756308471473133</v>
+        <v>0.007305176310981932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H5">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I5">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J5">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N5">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O5">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P5">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q5">
-        <v>7.27404525619414</v>
+        <v>7.37891024472</v>
       </c>
       <c r="R5">
-        <v>7.27404525619414</v>
+        <v>44.27346146832</v>
       </c>
       <c r="S5">
-        <v>0.01045669200377926</v>
+        <v>0.009900095189556717</v>
       </c>
       <c r="T5">
-        <v>0.01045669200377926</v>
+        <v>0.007562535936361675</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H6">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I6">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J6">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N6">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O6">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P6">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q6">
-        <v>1.031970936066458</v>
+        <v>1.26706682482</v>
       </c>
       <c r="R6">
-        <v>1.031970936066458</v>
+        <v>7.602400948920001</v>
       </c>
       <c r="S6">
-        <v>0.001483493964532287</v>
+        <v>0.001699991158751841</v>
       </c>
       <c r="T6">
-        <v>0.001483493964532287</v>
+        <v>0.001298598042079388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H7">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I7">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J7">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.10466027912086</v>
+        <v>6.106310000000001</v>
       </c>
       <c r="N7">
-        <v>6.10466027912086</v>
+        <v>12.21262</v>
       </c>
       <c r="O7">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="P7">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
       <c r="Q7">
-        <v>8.086997193053303</v>
+        <v>8.205781504200001</v>
       </c>
       <c r="R7">
-        <v>8.086997193053303</v>
+        <v>32.8231260168</v>
       </c>
       <c r="S7">
-        <v>0.01162533857088349</v>
+        <v>0.01100948721451301</v>
       </c>
       <c r="T7">
-        <v>0.01162533857088349</v>
+        <v>0.005606656037576749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H8">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I8">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J8">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N8">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O8">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P8">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q8">
-        <v>20.48827746738165</v>
+        <v>21.905691308865</v>
       </c>
       <c r="R8">
-        <v>20.48827746738165</v>
+        <v>131.43414785319</v>
       </c>
       <c r="S8">
-        <v>0.02945260850308111</v>
+        <v>0.02939030587965067</v>
       </c>
       <c r="T8">
-        <v>0.02945260850308111</v>
+        <v>0.02245081892040596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H9">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I9">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J9">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N9">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O9">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P9">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q9">
-        <v>89.94625366058743</v>
+        <v>97.4603074605</v>
       </c>
       <c r="R9">
-        <v>89.94625366058743</v>
+        <v>877.1427671445</v>
       </c>
       <c r="S9">
-        <v>0.1293008550670835</v>
+        <v>0.1307600023665862</v>
       </c>
       <c r="T9">
-        <v>0.1293008550670835</v>
+        <v>0.1498284407374962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H10">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I10">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J10">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N10">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O10">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P10">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q10">
-        <v>156.7041468401929</v>
+        <v>168.47935615614</v>
       </c>
       <c r="R10">
-        <v>156.7041468401929</v>
+        <v>1516.31420540526</v>
       </c>
       <c r="S10">
-        <v>0.2252676387774129</v>
+        <v>0.2260444439766061</v>
       </c>
       <c r="T10">
-        <v>0.2252676387774129</v>
+        <v>0.2590079991237719</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H11">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I11">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J11">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N11">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O11">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P11">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q11">
-        <v>167.9535865449607</v>
+        <v>174.41484383484</v>
       </c>
       <c r="R11">
-        <v>167.9535865449607</v>
+        <v>1569.73359451356</v>
       </c>
       <c r="S11">
-        <v>0.2414390979950571</v>
+        <v>0.2340079360190277</v>
       </c>
       <c r="T11">
-        <v>0.2414390979950571</v>
+        <v>0.268132789380325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H12">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I12">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J12">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N12">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O12">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P12">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q12">
-        <v>23.82762463224025</v>
+        <v>29.94957995829</v>
       </c>
       <c r="R12">
-        <v>23.82762463224025</v>
+        <v>269.54621962461</v>
       </c>
       <c r="S12">
-        <v>0.03425303571610751</v>
+        <v>0.04018258559066702</v>
       </c>
       <c r="T12">
-        <v>0.03425303571610751</v>
+        <v>0.0460423220777569</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H13">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I13">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J13">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.10466027912086</v>
+        <v>6.106310000000001</v>
       </c>
       <c r="N13">
-        <v>6.10466027912086</v>
+        <v>12.21262</v>
       </c>
       <c r="O13">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="P13">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
       <c r="Q13">
-        <v>186.7241864897302</v>
+        <v>193.9595485149</v>
       </c>
       <c r="R13">
-        <v>186.7241864897302</v>
+        <v>1163.7572910894</v>
       </c>
       <c r="S13">
-        <v>0.2684224855649203</v>
+        <v>0.2602305665114943</v>
       </c>
       <c r="T13">
-        <v>0.2684224855649203</v>
+        <v>0.1987862715763495</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.04359631232388</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H14">
-        <v>1.04359631232388</v>
+        <v>0.260443</v>
       </c>
       <c r="I14">
-        <v>0.03166685608923667</v>
+        <v>0.002516155988802771</v>
       </c>
       <c r="J14">
-        <v>0.03166685608923667</v>
+        <v>0.002580747333368299</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N14">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O14">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P14">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q14">
-        <v>0.6990349783552431</v>
+        <v>0.05987094069016667</v>
       </c>
       <c r="R14">
-        <v>0.6990349783552431</v>
+        <v>0.359225644141</v>
       </c>
       <c r="S14">
-        <v>0.001004886993561783</v>
+        <v>8.032731016684786E-05</v>
       </c>
       <c r="T14">
-        <v>0.001004886993561783</v>
+        <v>6.136084130270443E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.04359631232388</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H15">
-        <v>1.04359631232388</v>
+        <v>0.260443</v>
       </c>
       <c r="I15">
-        <v>0.03166685608923667</v>
+        <v>0.002516155988802771</v>
       </c>
       <c r="J15">
-        <v>0.03166685608923667</v>
+        <v>0.002580747333368299</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N15">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O15">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P15">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q15">
-        <v>3.068856207207511</v>
+        <v>0.2663709720611111</v>
       </c>
       <c r="R15">
-        <v>3.068856207207511</v>
+        <v>2.39733874855</v>
       </c>
       <c r="S15">
-        <v>0.004411587092523121</v>
+        <v>0.0003573831218541703</v>
       </c>
       <c r="T15">
-        <v>0.004411587092523121</v>
+        <v>0.0004094995023263461</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.04359631232388</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H16">
-        <v>1.04359631232388</v>
+        <v>0.260443</v>
       </c>
       <c r="I16">
-        <v>0.03166685608923667</v>
+        <v>0.002516155988802771</v>
       </c>
       <c r="J16">
-        <v>0.03166685608923667</v>
+        <v>0.002580747333368299</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N16">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O16">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P16">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q16">
-        <v>5.346553904739277</v>
+        <v>0.4604747413682222</v>
       </c>
       <c r="R16">
-        <v>5.346553904739277</v>
+        <v>4.144272672314</v>
       </c>
       <c r="S16">
-        <v>0.007685856424367817</v>
+        <v>0.0006178071857147107</v>
       </c>
       <c r="T16">
-        <v>0.007685856424367817</v>
+        <v>0.0007079006243250833</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.04359631232388</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H17">
-        <v>1.04359631232388</v>
+        <v>0.260443</v>
       </c>
       <c r="I17">
-        <v>0.03166685608923667</v>
+        <v>0.002516155988802771</v>
       </c>
       <c r="J17">
-        <v>0.03166685608923667</v>
+        <v>0.002580747333368299</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N17">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O17">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P17">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q17">
-        <v>5.73037103397576</v>
+        <v>0.476697157076</v>
       </c>
       <c r="R17">
-        <v>5.73037103397576</v>
+        <v>4.290274413684</v>
       </c>
       <c r="S17">
-        <v>0.008237606841755309</v>
+        <v>0.0006395723860471691</v>
       </c>
       <c r="T17">
-        <v>0.008237606841755309</v>
+        <v>0.0007328397950893139</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.04359631232388</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H18">
-        <v>1.04359631232388</v>
+        <v>0.260443</v>
       </c>
       <c r="I18">
-        <v>0.03166685608923667</v>
+        <v>0.002516155988802771</v>
       </c>
       <c r="J18">
-        <v>0.03166685608923667</v>
+        <v>0.002580747333368299</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N18">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O18">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P18">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q18">
-        <v>0.8129694209565761</v>
+        <v>0.08185587480877778</v>
       </c>
       <c r="R18">
-        <v>0.8129694209565761</v>
+        <v>0.736702873279</v>
       </c>
       <c r="S18">
-        <v>0.001168671701099847</v>
+        <v>0.0001098239340980205</v>
       </c>
       <c r="T18">
-        <v>0.001168671701099847</v>
+        <v>0.0001258393125095928</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.260443</v>
+      </c>
+      <c r="I19">
+        <v>0.002516155988802771</v>
+      </c>
+      <c r="J19">
+        <v>0.002580747333368299</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.106310000000001</v>
+      </c>
+      <c r="N19">
+        <v>12.21262</v>
+      </c>
+      <c r="O19">
+        <v>0.2826700944166318</v>
+      </c>
+      <c r="P19">
+        <v>0.210523227435114</v>
+      </c>
+      <c r="Q19">
+        <v>0.5301152317766666</v>
+      </c>
+      <c r="R19">
+        <v>3.18069139066</v>
+      </c>
+      <c r="S19">
+        <v>0.0007112420509218527</v>
+      </c>
+      <c r="T19">
+        <v>0.0005433072578152583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.061537</v>
+      </c>
+      <c r="H20">
+        <v>0.184611</v>
+      </c>
+      <c r="I20">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J20">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6896435000000001</v>
+      </c>
+      <c r="N20">
+        <v>1.379287</v>
+      </c>
+      <c r="O20">
+        <v>0.03192461458046126</v>
+      </c>
+      <c r="P20">
+        <v>0.02377638465777991</v>
+      </c>
+      <c r="Q20">
+        <v>0.04243859205950001</v>
+      </c>
+      <c r="R20">
+        <v>0.254631552357</v>
+      </c>
+      <c r="S20">
+        <v>5.693877377089018E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.349468510857873E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.061537</v>
+      </c>
+      <c r="H21">
+        <v>0.184611</v>
+      </c>
+      <c r="I21">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J21">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.068283333333333</v>
+      </c>
+      <c r="N21">
+        <v>9.20485</v>
+      </c>
+      <c r="O21">
+        <v>0.1420353600669325</v>
+      </c>
+      <c r="P21">
+        <v>0.1586747749505109</v>
+      </c>
+      <c r="Q21">
+        <v>0.1888129514833334</v>
+      </c>
+      <c r="R21">
+        <v>1.69931656335</v>
+      </c>
+      <c r="S21">
+        <v>0.000253325508877644</v>
+      </c>
+      <c r="T21">
+        <v>0.0002902674006364889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.061537</v>
+      </c>
+      <c r="H22">
+        <v>0.184611</v>
+      </c>
+      <c r="I22">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J22">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.304132666666667</v>
+      </c>
+      <c r="N22">
+        <v>15.912398</v>
+      </c>
+      <c r="O22">
+        <v>0.2455361227459804</v>
+      </c>
+      <c r="P22">
+        <v>0.2743006319030685</v>
+      </c>
+      <c r="Q22">
+        <v>0.3264004119086667</v>
+      </c>
+      <c r="R22">
+        <v>2.937603707178</v>
+      </c>
+      <c r="S22">
+        <v>0.0004379230862875119</v>
+      </c>
+      <c r="T22">
+        <v>0.0005017844294424422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.061537</v>
+      </c>
+      <c r="H23">
+        <v>0.184611</v>
+      </c>
+      <c r="I23">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J23">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.490996</v>
+      </c>
+      <c r="N23">
+        <v>16.472988</v>
+      </c>
+      <c r="O23">
+        <v>0.2541863019993003</v>
+      </c>
+      <c r="P23">
+        <v>0.2839641779781819</v>
+      </c>
+      <c r="Q23">
+        <v>0.337899420852</v>
+      </c>
+      <c r="R23">
+        <v>3.041094787668</v>
+      </c>
+      <c r="S23">
+        <v>0.0004533510125461384</v>
+      </c>
+      <c r="T23">
+        <v>0.0005194621756439349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.061537</v>
+      </c>
+      <c r="H24">
+        <v>0.184611</v>
+      </c>
+      <c r="I24">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J24">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.9428843333333333</v>
+      </c>
+      <c r="N24">
+        <v>2.828653</v>
+      </c>
+      <c r="O24">
+        <v>0.04364750619069392</v>
+      </c>
+      <c r="P24">
+        <v>0.0487608030753448</v>
+      </c>
+      <c r="Q24">
+        <v>0.05802227322033333</v>
+      </c>
+      <c r="R24">
+        <v>0.522200458983</v>
+      </c>
+      <c r="S24">
+        <v>7.784700029476572E-05</v>
+      </c>
+      <c r="T24">
+        <v>8.919925404679122E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.061537</v>
+      </c>
+      <c r="H25">
+        <v>0.184611</v>
+      </c>
+      <c r="I25">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J25">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.106310000000001</v>
+      </c>
+      <c r="N25">
+        <v>12.21262</v>
+      </c>
+      <c r="O25">
+        <v>0.2826700944166318</v>
+      </c>
+      <c r="P25">
+        <v>0.210523227435114</v>
+      </c>
+      <c r="Q25">
+        <v>0.37576399847</v>
+      </c>
+      <c r="R25">
+        <v>2.25458399082</v>
+      </c>
+      <c r="S25">
+        <v>0.000504152948102787</v>
+      </c>
+      <c r="T25">
+        <v>0.0003851149624775197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.2468015</v>
+      </c>
+      <c r="H26">
+        <v>2.493603</v>
+      </c>
+      <c r="I26">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J26">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6896435000000001</v>
+      </c>
+      <c r="N26">
+        <v>1.379287</v>
+      </c>
+      <c r="O26">
+        <v>0.03192461458046126</v>
+      </c>
+      <c r="P26">
+        <v>0.02377638465777991</v>
+      </c>
+      <c r="Q26">
+        <v>0.8598485502652502</v>
+      </c>
+      <c r="R26">
+        <v>3.439394201061001</v>
+      </c>
+      <c r="S26">
+        <v>0.001153636812742034</v>
+      </c>
+      <c r="T26">
+        <v>0.0005874973716127818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.2468015</v>
+      </c>
+      <c r="H27">
+        <v>2.493603</v>
+      </c>
+      <c r="I27">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J27">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.068283333333333</v>
+      </c>
+      <c r="N27">
+        <v>9.20485</v>
+      </c>
+      <c r="O27">
+        <v>0.1420353600669325</v>
+      </c>
+      <c r="P27">
+        <v>0.1586747749505109</v>
+      </c>
+      <c r="Q27">
+        <v>3.825540262425001</v>
+      </c>
+      <c r="R27">
+        <v>22.95324157455</v>
+      </c>
+      <c r="S27">
+        <v>0.005132629547376535</v>
+      </c>
+      <c r="T27">
+        <v>0.003920739614808168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.2468015</v>
+      </c>
+      <c r="H28">
+        <v>2.493603</v>
+      </c>
+      <c r="I28">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J28">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.304132666666667</v>
+      </c>
+      <c r="N28">
+        <v>15.912398</v>
+      </c>
+      <c r="O28">
+        <v>0.2455361227459804</v>
+      </c>
+      <c r="P28">
+        <v>0.2743006319030685</v>
+      </c>
+      <c r="Q28">
+        <v>6.613200564999</v>
+      </c>
+      <c r="R28">
+        <v>39.679203389994</v>
+      </c>
+      <c r="S28">
+        <v>0.008872762092203054</v>
+      </c>
+      <c r="T28">
+        <v>0.006777771414547141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.04359631232388</v>
-      </c>
-      <c r="H19">
-        <v>1.04359631232388</v>
-      </c>
-      <c r="I19">
-        <v>0.03166685608923667</v>
-      </c>
-      <c r="J19">
-        <v>0.03166685608923667</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>6.10466027912086</v>
-      </c>
-      <c r="N19">
-        <v>6.10466027912086</v>
-      </c>
-      <c r="O19">
-        <v>0.2892060711717326</v>
-      </c>
-      <c r="P19">
-        <v>0.2892060711717326</v>
-      </c>
-      <c r="Q19">
-        <v>6.370800955280598</v>
-      </c>
-      <c r="R19">
-        <v>6.370800955280598</v>
-      </c>
-      <c r="S19">
-        <v>0.009158247035928792</v>
-      </c>
-      <c r="T19">
-        <v>0.009158247035928792</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.2468015</v>
+      </c>
+      <c r="H29">
+        <v>2.493603</v>
+      </c>
+      <c r="I29">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J29">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.490996</v>
+      </c>
+      <c r="N29">
+        <v>16.472988</v>
+      </c>
+      <c r="O29">
+        <v>0.2541863019993003</v>
+      </c>
+      <c r="P29">
+        <v>0.2839641779781819</v>
+      </c>
+      <c r="Q29">
+        <v>6.846182049294001</v>
+      </c>
+      <c r="R29">
+        <v>41.077092295764</v>
+      </c>
+      <c r="S29">
+        <v>0.009185347392122532</v>
+      </c>
+      <c r="T29">
+        <v>0.007016550690761889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.2468015</v>
+      </c>
+      <c r="H30">
+        <v>2.493603</v>
+      </c>
+      <c r="I30">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J30">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.9428843333333333</v>
+      </c>
+      <c r="N30">
+        <v>2.828653</v>
+      </c>
+      <c r="O30">
+        <v>0.04364750619069392</v>
+      </c>
+      <c r="P30">
+        <v>0.0487608030753448</v>
+      </c>
+      <c r="Q30">
+        <v>1.1755896011265</v>
+      </c>
+      <c r="R30">
+        <v>7.053537606759001</v>
+      </c>
+      <c r="S30">
+        <v>0.001577258506882272</v>
+      </c>
+      <c r="T30">
+        <v>0.001204844388952125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.2468015</v>
+      </c>
+      <c r="H31">
+        <v>2.493603</v>
+      </c>
+      <c r="I31">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J31">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.106310000000001</v>
+      </c>
+      <c r="N31">
+        <v>12.21262</v>
+      </c>
+      <c r="O31">
+        <v>0.2826700944166318</v>
+      </c>
+      <c r="P31">
+        <v>0.210523227435114</v>
+      </c>
+      <c r="Q31">
+        <v>7.613356467465001</v>
+      </c>
+      <c r="R31">
+        <v>30.45342586986001</v>
+      </c>
+      <c r="S31">
+        <v>0.0102146456915998</v>
+      </c>
+      <c r="T31">
+        <v>0.005201877600895021</v>
       </c>
     </row>
   </sheetData>
